--- a/exercises/ex3/DA260.xlsx
+++ b/exercises/ex3/DA260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d043257\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D035740\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E1B84-E05F-482C-A913-BC1F94A9A9B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CCAFA-986F-486C-A30F-019C07DE5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22275" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUT000" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>XXDEFAULT</t>
   </si>
@@ -152,9 +152,6 @@
     <t>08527-1262</t>
   </si>
   <si>
-    <t>Lerchenstr</t>
-  </si>
-  <si>
     <t>c Obispo Frutos</t>
   </si>
   <si>
@@ -227,12 +224,6 @@
     <t>Cherry Str</t>
   </si>
   <si>
-    <t>lerchenstr</t>
-  </si>
-  <si>
-    <t>Lerchenstraße</t>
-  </si>
-  <si>
     <t>Lerchenstrasse</t>
   </si>
   <si>
@@ -296,7 +287,19 @@
     <t>4731</t>
   </si>
   <si>
-    <t>STD</t>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Frankfurterstr.</t>
+  </si>
+  <si>
+    <t>336 Franfurtstraße</t>
+  </si>
+  <si>
+    <t>0001</t>
   </si>
 </sst>
 </file>
@@ -1180,18 +1183,18 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>4714</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>4715</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>4716</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4717</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4718</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>4719</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4720</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>4721</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>4722</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>4723</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>4724</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>4725</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>4726</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>4727</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>4728</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>4729</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>4730</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>4731</v>
       </c>
@@ -1406,10 +1409,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>4732</v>
       </c>
@@ -1417,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="9">
         <v>20180625151611</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>4733</v>
       </c>
@@ -1431,16 +1434,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F21" s="9">
         <v>20180621151611</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>4734</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1462,24 +1465,24 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.84375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.15234375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3828125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>4714</v>
       </c>
@@ -1524,14 +1527,14 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>4715</v>
       </c>
@@ -1547,14 +1550,14 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>4716</v>
       </c>
@@ -1572,16 +1575,16 @@
         <v>74072</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="4">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4717</v>
       </c>
@@ -1599,16 +1602,14 @@
         <v>74072</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="4">
-        <v>17</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4718</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>74074</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4">
         <v>117</v>
@@ -1635,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>4719</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>74074</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H7" s="4">
         <v>117</v>
@@ -1662,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4720</v>
       </c>
@@ -1680,16 +1681,16 @@
         <v>74072</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>4721</v>
       </c>
@@ -1704,19 +1705,19 @@
         <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4">
         <v>12</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>4722</v>
       </c>
@@ -1734,14 +1735,14 @@
         <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>4723</v>
       </c>
@@ -1759,16 +1760,16 @@
         <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4">
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>4724</v>
       </c>
@@ -1786,16 +1787,16 @@
         <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="4">
         <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>4725</v>
       </c>
@@ -1813,16 +1814,16 @@
         <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="4">
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>4726</v>
       </c>
@@ -1834,22 +1835,22 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="4">
         <v>56</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>4727</v>
       </c>
@@ -1861,22 +1862,22 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="4">
         <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>4728</v>
       </c>
@@ -1892,19 +1893,19 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>4728</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -1915,14 +1916,14 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>4729</v>
       </c>
@@ -1938,7 +1939,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H18" s="4">
         <v>6</v>
@@ -1947,34 +1948,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>4729</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4">
         <v>76698</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>4730</v>
       </c>
@@ -1992,14 +1993,14 @@
         <v>20457</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>4731</v>
       </c>
@@ -2014,10 +2015,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H21" s="4">
         <v>328</v>
@@ -2026,59 +2027,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>4732</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>4733</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="6">
         <v>70</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>4734</v>
       </c>
@@ -2086,13 +2087,13 @@
         <v>47341</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="I24" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2109,16 +2110,16 @@
       <selection activeCell="A23" sqref="A23:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.3828125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>4714</v>
       </c>
@@ -2143,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>4715</v>
       </c>
@@ -2157,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>4716</v>
       </c>
@@ -2171,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4717</v>
       </c>
@@ -2185,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4718</v>
       </c>
@@ -2199,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>4719</v>
       </c>
@@ -2213,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4720</v>
       </c>
@@ -2227,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>4721</v>
       </c>
@@ -2241,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>4722</v>
       </c>
@@ -2255,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>4723</v>
       </c>
@@ -2269,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>4724</v>
       </c>
@@ -2283,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>4725</v>
       </c>
@@ -2297,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>4726</v>
       </c>
@@ -2311,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>4727</v>
       </c>
@@ -2325,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>4728</v>
       </c>
@@ -2339,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>4729</v>
       </c>
@@ -2353,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>4730</v>
       </c>
@@ -2367,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>4731</v>
       </c>
@@ -2381,38 +2382,38 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>4732</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>4733</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>4734</v>
       </c>
@@ -2423,11 +2424,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2439,15 +2441,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.3828125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.84375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>4716</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>329260281</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>4717</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>329260281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>4718</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>438159372</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4719</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>438159372</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4732</v>
       </c>
@@ -2515,6 +2517,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2522,35 +2525,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/ex3/DA260.xlsx
+++ b/exercises/ex3/DA260.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D035740\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/andreas_seifried_sap_com/Documents/Documents/Events/2022_TechEd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CCAFA-986F-486C-A30F-019C07DE5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{786CCAFA-986F-486C-A30F-019C07DE5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5404D420-FD68-42D9-BEDE-CEE546027F1D}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="754" yWindow="711" windowWidth="14915" windowHeight="11538" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUT000" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
   <si>
     <t>XXDEFAULT</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>329260281</t>
+  </si>
+  <si>
+    <t>438159372</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2437,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2467,8 +2473,8 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>329260281</v>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -2489,8 +2495,8 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>438159372</v>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
